--- a/user_files/hilarytn/facility2/source1/master_file.xlsx
+++ b/user_files/hilarytn/facility2/source1/master_file.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
@@ -609,11 +609,351 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
         <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SEC Cl</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45271.36145825232</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45271.36158556713</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRI pH</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45271.68537890046</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45271.68549464121</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45271.68549475694</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45271.68769383102</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0.002199074074074074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45271.6876965625</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45271.68898128472</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.001284722222222222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45271.68897129629</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45271.68908703703</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45271.6890871875</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45271.68920292824</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45271.89825825232</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45271.8996471412</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.001388888888888889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PRI Cl&amp;pH</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45272.09804105324</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45272.09827253472</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>393f4735-76bf-4e50-807c-e7dbccef7ba7</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0.0002314814814814815</v>
       </c>
     </row>
   </sheetData>

--- a/user_files/hilarytn/facility2/source1/master_file.xlsx
+++ b/user_files/hilarytn/facility2/source1/master_file.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31e1d9be-4621-4408-8307-24f412392e44</t>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
@@ -541,10 +541,78 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31e1d9be-4621-4408-8307-24f412392e44</t>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>10</v>
       </c>
     </row>
